--- a/Midterm-exam/evidence/spreadsheets/per_site/www.frogn.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.frogn.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8435.105</v>
+        <v>8534.034</v>
       </c>
       <c r="C2">
-        <v>5955.580000000001</v>
+        <v>5831.925000000001</v>
       </c>
       <c r="D2">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E2">
-        <v>8501.8059</v>
+        <v>8620.1532</v>
       </c>
       <c r="F2">
-        <v>157</v>
+        <v>154.4010000000003</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5955.580000000001</v>
+        <v>5954.944461062575</v>
       </c>
       <c r="I2">
         <v>59</v>
       </c>
       <c r="J2">
-        <v>1111278</v>
+        <v>1134634</v>
       </c>
       <c r="K2">
         <v>36</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8354.831</v>
+        <v>8515.2375</v>
       </c>
       <c r="C3">
-        <v>5960.035</v>
+        <v>5988.5885</v>
       </c>
       <c r="D3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>8421.9686</v>
+        <v>8592.07105</v>
       </c>
       <c r="F3">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5960.035</v>
+        <v>5988.5885</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J3">
-        <v>1110312</v>
+        <v>1133912</v>
       </c>
       <c r="K3">
         <v>36</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8392.302000000001</v>
+        <v>8504.9935</v>
       </c>
       <c r="C4">
-        <v>5953.094</v>
+        <v>5980.991</v>
       </c>
       <c r="D4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4">
-        <v>8459.092600000002</v>
+        <v>8582.50165</v>
       </c>
       <c r="F4">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5953.094</v>
+        <v>5980.991</v>
       </c>
       <c r="I4">
         <v>59</v>
       </c>
       <c r="J4">
-        <v>1111273</v>
+        <v>1133693</v>
       </c>
       <c r="K4">
         <v>36</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>8392.302000000001</v>
+        <v>8515.2375</v>
       </c>
       <c r="C5">
-        <v>5955.580000000001</v>
+        <v>5980.991</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E5">
-        <v>8459.092600000002</v>
+        <v>8592.07105</v>
       </c>
       <c r="F5">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5955.580000000001</v>
+        <v>5980.991</v>
       </c>
       <c r="I5">
         <v>59</v>
       </c>
       <c r="J5">
-        <v>1111273</v>
+        <v>1133912</v>
       </c>
       <c r="K5">
         <v>36</v>
@@ -738,16 +738,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E6">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F6">
         <v>2522</v>
       </c>
       <c r="G6">
-        <v>0.000519682831</v>
+        <v>0.000522300148</v>
       </c>
       <c r="H6">
-        <v>0.0006845664618000001</v>
+        <v>0.0006880141944000001</v>
       </c>
     </row>
     <row r="7">
@@ -764,16 +764,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E7">
-        <v>24971</v>
+        <v>24970</v>
       </c>
       <c r="F7">
         <v>72380</v>
       </c>
       <c r="G7">
-        <v>0.007261891422999999</v>
+        <v>0.007261600609999998</v>
       </c>
       <c r="H7">
-        <v>0.009565925639400001</v>
+        <v>0.009565542558000002</v>
       </c>
     </row>
     <row r="8">
@@ -842,16 +842,16 @@
         <v>application/json</v>
       </c>
       <c r="E10">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="F10">
         <v>109</v>
       </c>
       <c r="G10">
-        <v>0.00034839397399999997</v>
+        <v>0.000345776657</v>
       </c>
       <c r="H10">
-        <v>0.0004589315172000001</v>
+        <v>0.0004554837846</v>
       </c>
     </row>
     <row r="11">
@@ -946,16 +946,16 @@
         <v>application/json</v>
       </c>
       <c r="E14">
-        <v>2378</v>
+        <v>2370</v>
       </c>
       <c r="F14">
         <v>3087</v>
       </c>
       <c r="G14">
-        <v>0.000691553314</v>
+        <v>0.0006892268099999998</v>
       </c>
       <c r="H14">
-        <v>0.0009109675692</v>
+        <v>0.0009079029180000002</v>
       </c>
     </row>
     <row r="15">
@@ -972,16 +972,16 @@
         <v>application/json</v>
       </c>
       <c r="E15">
-        <v>16384</v>
+        <v>16312</v>
       </c>
       <c r="F15">
         <v>76454</v>
       </c>
       <c r="G15">
-        <v>0.0047646801919999995</v>
+        <v>0.004743741655999999</v>
       </c>
       <c r="H15">
-        <v>0.006276405657600001</v>
+        <v>0.0062488237968</v>
       </c>
     </row>
     <row r="16">
@@ -998,16 +998,16 @@
         <v>application/json</v>
       </c>
       <c r="E16">
-        <v>3307</v>
+        <v>3298</v>
       </c>
       <c r="F16">
         <v>6047</v>
       </c>
       <c r="G16">
-        <v>0.0009617185909999999</v>
+        <v>0.0009591012739999998</v>
       </c>
       <c r="H16">
-        <v>0.0012668501897999999</v>
+        <v>0.0012634024572000001</v>
       </c>
     </row>
     <row r="17">
@@ -1330,16 +1330,16 @@
         <v>application/json</v>
       </c>
       <c r="E29">
-        <v>6139</v>
+        <v>6373</v>
       </c>
       <c r="F29">
-        <v>14455</v>
+        <v>14809</v>
       </c>
       <c r="G29">
-        <v>0.0017853010069999997</v>
+        <v>0.001853351249</v>
       </c>
       <c r="H29">
-        <v>0.0023517367146</v>
+        <v>0.0024413777622</v>
       </c>
     </row>
     <row r="30">
@@ -1356,16 +1356,16 @@
         <v>application/json</v>
       </c>
       <c r="E30">
-        <v>3385</v>
+        <v>3430</v>
       </c>
       <c r="F30">
         <v>9962</v>
       </c>
       <c r="G30">
-        <v>0.0009844020049999999</v>
+        <v>0.0009974885899999997</v>
       </c>
       <c r="H30">
-        <v>0.001296730539</v>
+        <v>0.0013139692020000002</v>
       </c>
     </row>
     <row r="31">
@@ -1382,16 +1382,16 @@
         <v>application/json</v>
       </c>
       <c r="E31">
-        <v>36764</v>
+        <v>39093</v>
       </c>
       <c r="F31">
-        <v>124288</v>
+        <v>131282</v>
       </c>
       <c r="G31">
-        <v>0.010691449131999998</v>
+        <v>0.011368752608999999</v>
       </c>
       <c r="H31">
-        <v>0.014083604589600002</v>
+        <v>0.014975801170200004</v>
       </c>
     </row>
     <row r="32">
@@ -1408,16 +1408,16 @@
         <v>application/json</v>
       </c>
       <c r="E32">
-        <v>27127</v>
+        <v>24064</v>
       </c>
       <c r="F32">
-        <v>320034</v>
+        <v>278993</v>
       </c>
       <c r="G32">
-        <v>0.007888884250999999</v>
+        <v>0.006998124031999999</v>
       </c>
       <c r="H32">
-        <v>0.0103918491378</v>
+        <v>0.009218470809600003</v>
       </c>
     </row>
     <row r="33">
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/c6fdd324-eb71-446d-94ae-ccc28f251fbe.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/f0463a60-75f8-4054-a627-698ba68e0507.jpg</v>
       </c>
       <c r="C33" t="str">
         <v>Image</v>
@@ -1434,16 +1434,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E33">
-        <v>19709</v>
+        <v>30424</v>
       </c>
       <c r="F33">
-        <v>19133</v>
+        <v>29846</v>
       </c>
       <c r="G33">
-        <v>0.005731633416999999</v>
+        <v>0.008847694711999999</v>
       </c>
       <c r="H33">
-        <v>0.007550151312600001</v>
+        <v>0.0116548685136</v>
       </c>
     </row>
     <row r="34">
@@ -1451,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/07c4945c-6349-4d51-ae3d-9488eb7fe7f1.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/c6fdd324-eb71-446d-94ae-ccc28f251fbe.jpg</v>
       </c>
       <c r="C34" t="str">
         <v>Image</v>
@@ -1460,16 +1460,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E34">
-        <v>12499</v>
+        <v>19709</v>
       </c>
       <c r="F34">
-        <v>11933</v>
+        <v>19133</v>
       </c>
       <c r="G34">
-        <v>0.0036348716869999994</v>
+        <v>0.005731633416999999</v>
       </c>
       <c r="H34">
-        <v>0.004788134418600001</v>
+        <v>0.007550151312600001</v>
       </c>
     </row>
     <row r="35">
@@ -1477,25 +1477,25 @@
         <v>1</v>
       </c>
       <c r="B35" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/4071d6eb-7e09-4669-bbde-a78dffcd92dc.webp</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/07c4945c-6349-4d51-ae3d-9488eb7fe7f1.jpg</v>
       </c>
       <c r="C35" t="str">
         <v>Image</v>
       </c>
       <c r="D35" t="str">
-        <v>image/webp</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E35">
-        <v>6524</v>
+        <v>12500</v>
       </c>
       <c r="F35">
-        <v>5910</v>
+        <v>11933</v>
       </c>
       <c r="G35">
-        <v>0.0018972640119999996</v>
+        <v>0.0036351624999999992</v>
       </c>
       <c r="H35">
-        <v>0.0024992230536</v>
+        <v>0.0047885175000000006</v>
       </c>
     </row>
     <row r="36">
@@ -1590,16 +1590,16 @@
         <v>text/css</v>
       </c>
       <c r="E39">
-        <v>839</v>
+        <v>468</v>
       </c>
       <c r="F39">
         <v>622</v>
       </c>
       <c r="G39">
-        <v>0.00024399210699999996</v>
+        <v>0.00013610048399999996</v>
       </c>
       <c r="H39">
-        <v>0.00032140529459999997</v>
+        <v>0.00017928209520000002</v>
       </c>
     </row>
     <row r="40">
@@ -1616,16 +1616,16 @@
         <v>text/css</v>
       </c>
       <c r="E40">
-        <v>656</v>
+        <v>1027</v>
       </c>
       <c r="F40">
         <v>4984</v>
       </c>
       <c r="G40">
-        <v>0.00019077332799999997</v>
+        <v>0.00029866495099999997</v>
       </c>
       <c r="H40">
-        <v>0.00025130139840000005</v>
+        <v>0.00039342459780000006</v>
       </c>
     </row>
     <row r="41">
@@ -1772,16 +1772,16 @@
         <v>application/json</v>
       </c>
       <c r="E46">
-        <v>1063</v>
+        <v>1198</v>
       </c>
       <c r="F46">
         <v>109</v>
       </c>
       <c r="G46">
-        <v>0.00030913421899999996</v>
+        <v>0.00034839397399999997</v>
       </c>
       <c r="H46">
-        <v>0.00040721552820000007</v>
+        <v>0.0004589315172000001</v>
       </c>
     </row>
     <row r="47">
@@ -1824,16 +1824,16 @@
         <v>application/json</v>
       </c>
       <c r="E48">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="F48">
         <v>1227</v>
       </c>
       <c r="G48">
-        <v>0.000271619342</v>
+        <v>0.00026871121199999995</v>
       </c>
       <c r="H48">
-        <v>0.00035779802759999997</v>
+        <v>0.00035396721360000005</v>
       </c>
     </row>
     <row r="49">
@@ -1876,16 +1876,16 @@
         <v>application/json</v>
       </c>
       <c r="E50">
-        <v>2262</v>
+        <v>2253</v>
       </c>
       <c r="F50">
         <v>3087</v>
       </c>
       <c r="G50">
-        <v>0.0006578190059999999</v>
+        <v>0.0006552016889999999</v>
       </c>
       <c r="H50">
-        <v>0.0008665301268000001</v>
+        <v>0.0008630823942000002</v>
       </c>
     </row>
     <row r="51">
@@ -1902,16 +1902,16 @@
         <v>application/json</v>
       </c>
       <c r="E51">
-        <v>16294</v>
+        <v>16240</v>
       </c>
       <c r="F51">
         <v>76454</v>
       </c>
       <c r="G51">
-        <v>0.004738507021999999</v>
+        <v>0.00472280312</v>
       </c>
       <c r="H51">
-        <v>0.006241928331600001</v>
+        <v>0.006221241936</v>
       </c>
     </row>
     <row r="52">
@@ -1928,16 +1928,16 @@
         <v>application/json</v>
       </c>
       <c r="E52">
-        <v>3182</v>
+        <v>3172</v>
       </c>
       <c r="F52">
         <v>6047</v>
       </c>
       <c r="G52">
-        <v>0.0009253669659999999</v>
+        <v>0.0009224588359999998</v>
       </c>
       <c r="H52">
-        <v>0.0012189650148000002</v>
+        <v>0.0012151342008000002</v>
       </c>
     </row>
     <row r="53">
@@ -2133,16 +2133,16 @@
         <v>application/json</v>
       </c>
       <c r="E60">
-        <v>1930</v>
+        <v>2025</v>
       </c>
       <c r="F60">
         <v>2603</v>
       </c>
       <c r="G60">
-        <v>0.00056126909</v>
+        <v>0.0005888963249999999</v>
       </c>
       <c r="H60">
-        <v>0.000739347102</v>
+        <v>0.000775739835</v>
       </c>
     </row>
     <row r="61">
@@ -2260,16 +2260,16 @@
         <v>application/json</v>
       </c>
       <c r="E65">
-        <v>6067</v>
+        <v>6310</v>
       </c>
       <c r="F65">
-        <v>14455</v>
+        <v>14809</v>
       </c>
       <c r="G65">
-        <v>0.0017643624709999996</v>
+        <v>0.0018350300299999997</v>
       </c>
       <c r="H65">
-        <v>0.0023241548538</v>
+        <v>0.0024172436340000004</v>
       </c>
     </row>
     <row r="66">
@@ -2286,16 +2286,16 @@
         <v>application/json</v>
       </c>
       <c r="E66">
-        <v>3295</v>
+        <v>3403</v>
       </c>
       <c r="F66">
         <v>9962</v>
       </c>
       <c r="G66">
-        <v>0.0009582288349999999</v>
+        <v>0.0009896366389999997</v>
       </c>
       <c r="H66">
-        <v>0.001262253213</v>
+        <v>0.0013036260042</v>
       </c>
     </row>
     <row r="67">
@@ -2312,16 +2312,16 @@
         <v>application/json</v>
       </c>
       <c r="E67">
-        <v>36630</v>
+        <v>38895</v>
       </c>
       <c r="F67">
-        <v>124288</v>
+        <v>131282</v>
       </c>
       <c r="G67">
-        <v>0.010652480189999999</v>
+        <v>0.011311171634999999</v>
       </c>
       <c r="H67">
-        <v>0.014032271682000002</v>
+        <v>0.014899951053</v>
       </c>
     </row>
     <row r="68">
@@ -2338,16 +2338,16 @@
         <v>application/json</v>
       </c>
       <c r="E68">
-        <v>27127</v>
+        <v>24064</v>
       </c>
       <c r="F68">
-        <v>320034</v>
+        <v>278993</v>
       </c>
       <c r="G68">
-        <v>0.007888884250999999</v>
+        <v>0.006998124031999999</v>
       </c>
       <c r="H68">
-        <v>0.0103918491378</v>
+        <v>0.009218470809600003</v>
       </c>
     </row>
     <row r="69">
@@ -2355,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/c6fdd324-eb71-446d-94ae-ccc28f251fbe.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/f0463a60-75f8-4054-a627-698ba68e0507.jpg</v>
       </c>
       <c r="C69" t="str">
         <v>Image</v>
@@ -2364,16 +2364,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E69">
-        <v>19708</v>
+        <v>30424</v>
       </c>
       <c r="F69">
-        <v>19133</v>
+        <v>29846</v>
       </c>
       <c r="G69">
-        <v>0.005731342603999999</v>
+        <v>0.008847694711999999</v>
       </c>
       <c r="H69">
-        <v>0.0075497682312</v>
+        <v>0.0116548685136</v>
       </c>
     </row>
     <row r="70">
@@ -2381,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/07c4945c-6349-4d51-ae3d-9488eb7fe7f1.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/c6fdd324-eb71-446d-94ae-ccc28f251fbe.jpg</v>
       </c>
       <c r="C70" t="str">
         <v>Image</v>
@@ -2390,16 +2390,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E70">
-        <v>12499</v>
+        <v>19709</v>
       </c>
       <c r="F70">
-        <v>11933</v>
+        <v>19133</v>
       </c>
       <c r="G70">
-        <v>0.0036348716869999994</v>
+        <v>0.005731633416999999</v>
       </c>
       <c r="H70">
-        <v>0.004788134418600001</v>
+        <v>0.007550151312600001</v>
       </c>
     </row>
     <row r="71">
@@ -2407,25 +2407,25 @@
         <v>2</v>
       </c>
       <c r="B71" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/4071d6eb-7e09-4669-bbde-a78dffcd92dc.webp</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/07c4945c-6349-4d51-ae3d-9488eb7fe7f1.jpg</v>
       </c>
       <c r="C71" t="str">
         <v>Image</v>
       </c>
       <c r="D71" t="str">
-        <v>image/webp</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E71">
-        <v>6525</v>
+        <v>12499</v>
       </c>
       <c r="F71">
-        <v>5910</v>
+        <v>11933</v>
       </c>
       <c r="G71">
-        <v>0.0018975548249999996</v>
+        <v>0.0036348716869999994</v>
       </c>
       <c r="H71">
-        <v>0.0024996061350000005</v>
+        <v>0.004788134418600001</v>
       </c>
     </row>
     <row r="72">
@@ -2520,16 +2520,16 @@
         <v>text/css</v>
       </c>
       <c r="E75">
-        <v>468</v>
+        <v>839</v>
       </c>
       <c r="F75">
         <v>622</v>
       </c>
       <c r="G75">
-        <v>0.00013610048399999996</v>
+        <v>0.00024399210699999996</v>
       </c>
       <c r="H75">
-        <v>0.00017928209520000002</v>
+        <v>0.00032140529459999997</v>
       </c>
     </row>
     <row r="76">
@@ -2546,16 +2546,16 @@
         <v>text/css</v>
       </c>
       <c r="E76">
-        <v>1027</v>
+        <v>656</v>
       </c>
       <c r="F76">
         <v>4984</v>
       </c>
       <c r="G76">
-        <v>0.00029866495099999997</v>
+        <v>0.00019077332799999997</v>
       </c>
       <c r="H76">
-        <v>0.00039342459780000006</v>
+        <v>0.00025130139840000005</v>
       </c>
     </row>
     <row r="77">
@@ -2624,16 +2624,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E79">
-        <v>24971</v>
+        <v>24970</v>
       </c>
       <c r="F79">
         <v>72380</v>
       </c>
       <c r="G79">
-        <v>0.007261891422999999</v>
+        <v>0.007261600609999998</v>
       </c>
       <c r="H79">
-        <v>0.009565925639400001</v>
+        <v>0.009565542558000002</v>
       </c>
     </row>
     <row r="80">
@@ -2702,16 +2702,16 @@
         <v>application/json</v>
       </c>
       <c r="E82">
-        <v>1189</v>
+        <v>1063</v>
       </c>
       <c r="F82">
         <v>109</v>
       </c>
       <c r="G82">
-        <v>0.000345776657</v>
+        <v>0.00030913421899999996</v>
       </c>
       <c r="H82">
-        <v>0.0004554837846</v>
+        <v>0.00040721552820000007</v>
       </c>
     </row>
     <row r="83">
@@ -2754,16 +2754,16 @@
         <v>application/json</v>
       </c>
       <c r="E84">
-        <v>1060</v>
+        <v>925</v>
       </c>
       <c r="F84">
         <v>1227</v>
       </c>
       <c r="G84">
-        <v>0.00030826177999999997</v>
+        <v>0.00026900202499999996</v>
       </c>
       <c r="H84">
-        <v>0.00040606628399999996</v>
+        <v>0.00035435029500000003</v>
       </c>
     </row>
     <row r="85">
@@ -2780,16 +2780,16 @@
         <v>text/css</v>
       </c>
       <c r="E85">
-        <v>1940</v>
+        <v>1963</v>
       </c>
       <c r="F85">
         <v>23412</v>
       </c>
       <c r="G85">
-        <v>0.00056417722</v>
+        <v>0.000570865919</v>
       </c>
       <c r="H85">
-        <v>0.0007431779160000002</v>
+        <v>0.0007519887882000002</v>
       </c>
     </row>
     <row r="86">
@@ -2806,16 +2806,16 @@
         <v>application/json</v>
       </c>
       <c r="E86">
-        <v>2369</v>
+        <v>2262</v>
       </c>
       <c r="F86">
         <v>3087</v>
       </c>
       <c r="G86">
-        <v>0.0006889359969999999</v>
+        <v>0.0006578190059999999</v>
       </c>
       <c r="H86">
-        <v>0.0009075198366000002</v>
+        <v>0.0008665301268000001</v>
       </c>
     </row>
     <row r="87">
@@ -2832,16 +2832,16 @@
         <v>application/json</v>
       </c>
       <c r="E87">
-        <v>16375</v>
+        <v>16285</v>
       </c>
       <c r="F87">
         <v>76454</v>
       </c>
       <c r="G87">
-        <v>0.004762062875</v>
+        <v>0.004735889704999999</v>
       </c>
       <c r="H87">
-        <v>0.006272957925000001</v>
+        <v>0.006238480599000001</v>
       </c>
     </row>
     <row r="88">
@@ -2858,16 +2858,16 @@
         <v>application/json</v>
       </c>
       <c r="E88">
-        <v>3298</v>
+        <v>3190</v>
       </c>
       <c r="F88">
         <v>6047</v>
       </c>
       <c r="G88">
-        <v>0.0009591012739999998</v>
+        <v>0.0009276934699999998</v>
       </c>
       <c r="H88">
-        <v>0.0012634024572000001</v>
+        <v>0.0012220296659999999</v>
       </c>
     </row>
     <row r="89">
@@ -3063,16 +3063,16 @@
         <v>application/json</v>
       </c>
       <c r="E96">
-        <v>2025</v>
+        <v>1890</v>
       </c>
       <c r="F96">
         <v>2603</v>
       </c>
       <c r="G96">
-        <v>0.0005888963249999999</v>
+        <v>0.0005496365699999999</v>
       </c>
       <c r="H96">
-        <v>0.000775739835</v>
+        <v>0.000724023846</v>
       </c>
     </row>
     <row r="97">
@@ -3190,16 +3190,16 @@
         <v>application/json</v>
       </c>
       <c r="E101">
-        <v>6166</v>
+        <v>6260</v>
       </c>
       <c r="F101">
-        <v>14455</v>
+        <v>14809</v>
       </c>
       <c r="G101">
-        <v>0.0017931529579999998</v>
+        <v>0.0018204893799999998</v>
       </c>
       <c r="H101">
-        <v>0.0023620799124</v>
+        <v>0.002398089564</v>
       </c>
     </row>
     <row r="102">
@@ -3216,16 +3216,16 @@
         <v>application/json</v>
       </c>
       <c r="E102">
-        <v>3412</v>
+        <v>3304</v>
       </c>
       <c r="F102">
         <v>9962</v>
       </c>
       <c r="G102">
-        <v>0.0009922539559999999</v>
+        <v>0.0009608461519999999</v>
       </c>
       <c r="H102">
-        <v>0.0013070737368000003</v>
+        <v>0.0012657009456000002</v>
       </c>
     </row>
     <row r="103">
@@ -3242,16 +3242,16 @@
         <v>application/json</v>
       </c>
       <c r="E103">
-        <v>36701</v>
+        <v>38976</v>
       </c>
       <c r="F103">
-        <v>124288</v>
+        <v>131282</v>
       </c>
       <c r="G103">
-        <v>0.010673127912999998</v>
+        <v>0.011334727487999999</v>
       </c>
       <c r="H103">
-        <v>0.0140594704614</v>
+        <v>0.014930980646400001</v>
       </c>
     </row>
     <row r="104">
@@ -3268,16 +3268,16 @@
         <v>application/json</v>
       </c>
       <c r="E104">
-        <v>27127</v>
+        <v>24064</v>
       </c>
       <c r="F104">
-        <v>320034</v>
+        <v>278993</v>
       </c>
       <c r="G104">
-        <v>0.007888884250999999</v>
+        <v>0.006998124031999999</v>
       </c>
       <c r="H104">
-        <v>0.0103918491378</v>
+        <v>0.009218470809600003</v>
       </c>
     </row>
     <row r="105">
@@ -3285,7 +3285,7 @@
         <v>3</v>
       </c>
       <c r="B105" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/c6fdd324-eb71-446d-94ae-ccc28f251fbe.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/f0463a60-75f8-4054-a627-698ba68e0507.jpg</v>
       </c>
       <c r="C105" t="str">
         <v>Image</v>
@@ -3294,16 +3294,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E105">
-        <v>19708</v>
+        <v>30424</v>
       </c>
       <c r="F105">
-        <v>19133</v>
+        <v>29846</v>
       </c>
       <c r="G105">
-        <v>0.005731342603999999</v>
+        <v>0.008847694711999999</v>
       </c>
       <c r="H105">
-        <v>0.0075497682312</v>
+        <v>0.0116548685136</v>
       </c>
     </row>
     <row r="106">
@@ -3311,7 +3311,7 @@
         <v>3</v>
       </c>
       <c r="B106" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/07c4945c-6349-4d51-ae3d-9488eb7fe7f1.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/c6fdd324-eb71-446d-94ae-ccc28f251fbe.jpg</v>
       </c>
       <c r="C106" t="str">
         <v>Image</v>
@@ -3320,16 +3320,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E106">
-        <v>12499</v>
+        <v>19709</v>
       </c>
       <c r="F106">
-        <v>11933</v>
+        <v>19133</v>
       </c>
       <c r="G106">
-        <v>0.0036348716869999994</v>
+        <v>0.005731633416999999</v>
       </c>
       <c r="H106">
-        <v>0.004788134418600001</v>
+        <v>0.007550151312600001</v>
       </c>
     </row>
     <row r="107">
@@ -3337,25 +3337,25 @@
         <v>3</v>
       </c>
       <c r="B107" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/4071d6eb-7e09-4669-bbde-a78dffcd92dc.webp</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/07c4945c-6349-4d51-ae3d-9488eb7fe7f1.jpg</v>
       </c>
       <c r="C107" t="str">
         <v>Image</v>
       </c>
       <c r="D107" t="str">
-        <v>image/webp</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E107">
-        <v>6524</v>
+        <v>12499</v>
       </c>
       <c r="F107">
-        <v>5910</v>
+        <v>11933</v>
       </c>
       <c r="G107">
-        <v>0.0018972640119999996</v>
+        <v>0.0036348716869999994</v>
       </c>
       <c r="H107">
-        <v>0.0024992230536</v>
+        <v>0.004788134418600001</v>
       </c>
     </row>
     <row r="108">
@@ -3460,7 +3460,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>311834</v>
+        <v>311857</v>
       </c>
       <c r="D3">
         <v>1985244</v>
@@ -3474,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>1296614</v>
+        <v>1296621</v>
       </c>
       <c r="D4">
         <v>4533324</v>
@@ -3488,10 +3488,10 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>284585</v>
+        <v>282480</v>
       </c>
       <c r="D5">
-        <v>1648659</v>
+        <v>1547580</v>
       </c>
     </row>
     <row r="6">
@@ -3502,7 +3502,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>16796</v>
+        <v>16545</v>
       </c>
       <c r="D6">
         <v>27402</v>
@@ -3516,10 +3516,10 @@
         <v>27</v>
       </c>
       <c r="C7">
-        <v>691670</v>
+        <v>763372</v>
       </c>
       <c r="D7">
-        <v>673770</v>
+        <v>745578</v>
       </c>
     </row>
     <row r="8">
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1111278</v>
+        <v>1134634</v>
       </c>
       <c r="C2">
-        <v>0.32317408901399997</v>
+        <v>0.32996631744199995</v>
       </c>
       <c r="D2">
-        <v>0.42570993202920004</v>
+        <v>0.43465718120760005</v>
       </c>
     </row>
     <row r="3">
@@ -3611,13 +3611,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1110312</v>
+        <v>1133912</v>
       </c>
       <c r="C3">
-        <v>0.32289316365599996</v>
+        <v>0.329756350456</v>
       </c>
       <c r="D3">
-        <v>0.42533987539680007</v>
+        <v>0.43438059643680005</v>
       </c>
     </row>
     <row r="4">
@@ -3625,13 +3625,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1111273</v>
+        <v>1133693</v>
       </c>
       <c r="C4">
-        <v>0.32317263494899995</v>
+        <v>0.32969266240899997</v>
       </c>
       <c r="D4">
-        <v>0.42570801662220004</v>
+        <v>0.43429670161020006</v>
       </c>
     </row>
     <row r="5">
@@ -3639,13 +3639,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1111273</v>
+        <v>1133912</v>
       </c>
       <c r="C5">
-        <v>0.32317263494899995</v>
+        <v>0.329756350456</v>
       </c>
       <c r="D5">
-        <v>0.42570801662220004</v>
+        <v>0.43438059643680005</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.frogn.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.frogn.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8534.034</v>
+        <v>8549.1495</v>
       </c>
       <c r="C2">
-        <v>5831.925000000001</v>
+        <v>6023.3355</v>
       </c>
       <c r="D2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2">
-        <v>8620.1532</v>
+        <v>8635.10355</v>
       </c>
       <c r="F2">
-        <v>154.4010000000003</v>
+        <v>175.9999999999991</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5954.944461062575</v>
+        <v>6023.3355</v>
       </c>
       <c r="I2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2">
-        <v>1134634</v>
+        <v>1133398</v>
       </c>
       <c r="K2">
         <v>36</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8515.2375</v>
+        <v>8667.057</v>
       </c>
       <c r="C3">
-        <v>5988.5885</v>
+        <v>5982.2525000000005</v>
       </c>
       <c r="D3">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E3">
-        <v>8592.07105</v>
+        <v>8743.693000000001</v>
       </c>
       <c r="F3">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5988.5885</v>
+        <v>5982.2525000000005</v>
       </c>
       <c r="I3">
         <v>59</v>
       </c>
       <c r="J3">
-        <v>1133912</v>
+        <v>1134288</v>
       </c>
       <c r="K3">
         <v>36</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8504.9935</v>
+        <v>8655.991000000002</v>
       </c>
       <c r="C4">
-        <v>5980.991</v>
+        <v>5952.354000000001</v>
       </c>
       <c r="D4">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E4">
-        <v>8582.50165</v>
+        <v>8732.187000000002</v>
       </c>
       <c r="F4">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5980.991</v>
+        <v>5952.354000000001</v>
       </c>
       <c r="I4">
         <v>59</v>
       </c>
       <c r="J4">
-        <v>1133693</v>
+        <v>1134601</v>
       </c>
       <c r="K4">
         <v>36</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>8515.2375</v>
+        <v>8655.991000000002</v>
       </c>
       <c r="C5">
-        <v>5980.991</v>
+        <v>5982.2525000000005</v>
       </c>
       <c r="D5">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E5">
-        <v>8592.07105</v>
+        <v>8732.187000000002</v>
       </c>
       <c r="F5">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5980.991</v>
+        <v>5982.2525000000005</v>
       </c>
       <c r="I5">
         <v>59</v>
       </c>
       <c r="J5">
-        <v>1133912</v>
+        <v>1134288</v>
       </c>
       <c r="K5">
         <v>36</v>
@@ -660,16 +660,16 @@
         <v>text/css</v>
       </c>
       <c r="E3">
-        <v>839</v>
+        <v>468</v>
       </c>
       <c r="F3">
         <v>622</v>
       </c>
       <c r="G3">
-        <v>0.00024399210699999996</v>
+        <v>0.00013610048399999996</v>
       </c>
       <c r="H3">
-        <v>0.00032140529459999997</v>
+        <v>0.00017928209520000002</v>
       </c>
     </row>
     <row r="4">
@@ -686,16 +686,16 @@
         <v>text/css</v>
       </c>
       <c r="E4">
-        <v>656</v>
+        <v>1027</v>
       </c>
       <c r="F4">
         <v>4984</v>
       </c>
       <c r="G4">
-        <v>0.00019077332799999997</v>
+        <v>0.00029866495099999997</v>
       </c>
       <c r="H4">
-        <v>0.00025130139840000005</v>
+        <v>0.00039342459780000006</v>
       </c>
     </row>
     <row r="5">
@@ -738,16 +738,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E6">
-        <v>1796</v>
+        <v>1787</v>
       </c>
       <c r="F6">
         <v>2522</v>
       </c>
       <c r="G6">
-        <v>0.000522300148</v>
+        <v>0.000519682831</v>
       </c>
       <c r="H6">
-        <v>0.0006880141944000001</v>
+        <v>0.0006845664618000001</v>
       </c>
     </row>
     <row r="7">
@@ -764,16 +764,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E7">
-        <v>24970</v>
+        <v>24971</v>
       </c>
       <c r="F7">
         <v>72380</v>
       </c>
       <c r="G7">
-        <v>0.007261600609999998</v>
+        <v>0.007261891422999999</v>
       </c>
       <c r="H7">
-        <v>0.009565542558000002</v>
+        <v>0.009565925639400001</v>
       </c>
     </row>
     <row r="8">
@@ -842,16 +842,16 @@
         <v>application/json</v>
       </c>
       <c r="E10">
-        <v>1189</v>
+        <v>1054</v>
       </c>
       <c r="F10">
         <v>109</v>
       </c>
       <c r="G10">
-        <v>0.000345776657</v>
+        <v>0.0003065169019999999</v>
       </c>
       <c r="H10">
-        <v>0.0004554837846</v>
+        <v>0.00040376779559999997</v>
       </c>
     </row>
     <row r="11">
@@ -894,16 +894,16 @@
         <v>application/json</v>
       </c>
       <c r="E12">
-        <v>1051</v>
+        <v>934</v>
       </c>
       <c r="F12">
         <v>1227</v>
       </c>
       <c r="G12">
-        <v>0.000305644463</v>
+        <v>0.000271619342</v>
       </c>
       <c r="H12">
-        <v>0.00040261855140000003</v>
+        <v>0.00035779802759999997</v>
       </c>
     </row>
     <row r="13">
@@ -920,16 +920,16 @@
         <v>text/css</v>
       </c>
       <c r="E13">
-        <v>1917</v>
+        <v>1940</v>
       </c>
       <c r="F13">
         <v>23412</v>
       </c>
       <c r="G13">
-        <v>0.000557488521</v>
+        <v>0.00056417722</v>
       </c>
       <c r="H13">
-        <v>0.0007343670438000001</v>
+        <v>0.0007431779160000002</v>
       </c>
     </row>
     <row r="14">
@@ -946,16 +946,16 @@
         <v>application/json</v>
       </c>
       <c r="E14">
-        <v>2370</v>
+        <v>2262</v>
       </c>
       <c r="F14">
         <v>3087</v>
       </c>
       <c r="G14">
-        <v>0.0006892268099999998</v>
+        <v>0.0006578190059999999</v>
       </c>
       <c r="H14">
-        <v>0.0009079029180000002</v>
+        <v>0.0008665301268000001</v>
       </c>
     </row>
     <row r="15">
@@ -972,16 +972,16 @@
         <v>application/json</v>
       </c>
       <c r="E15">
-        <v>16312</v>
+        <v>16258</v>
       </c>
       <c r="F15">
         <v>76454</v>
       </c>
       <c r="G15">
-        <v>0.004743741655999999</v>
+        <v>0.004728037754</v>
       </c>
       <c r="H15">
-        <v>0.0062488237968</v>
+        <v>0.0062281374012</v>
       </c>
     </row>
     <row r="16">
@@ -998,16 +998,16 @@
         <v>application/json</v>
       </c>
       <c r="E16">
-        <v>3298</v>
+        <v>3181</v>
       </c>
       <c r="F16">
         <v>6047</v>
       </c>
       <c r="G16">
-        <v>0.0009591012739999998</v>
+        <v>0.0009250761529999999</v>
       </c>
       <c r="H16">
-        <v>0.0012634024572000001</v>
+        <v>0.0012185819334000001</v>
       </c>
     </row>
     <row r="17">
@@ -1203,16 +1203,16 @@
         <v>application/json</v>
       </c>
       <c r="E24">
-        <v>2025</v>
+        <v>1891</v>
       </c>
       <c r="F24">
         <v>2603</v>
       </c>
       <c r="G24">
-        <v>0.0005888963249999999</v>
+        <v>0.000549927383</v>
       </c>
       <c r="H24">
-        <v>0.000775739835</v>
+        <v>0.0007244069274000001</v>
       </c>
     </row>
     <row r="25">
@@ -1330,16 +1330,16 @@
         <v>application/json</v>
       </c>
       <c r="E29">
-        <v>6373</v>
+        <v>6148</v>
       </c>
       <c r="F29">
         <v>14809</v>
       </c>
       <c r="G29">
-        <v>0.001853351249</v>
+        <v>0.0017879183239999997</v>
       </c>
       <c r="H29">
-        <v>0.0024413777622</v>
+        <v>0.0023551844472000003</v>
       </c>
     </row>
     <row r="30">
@@ -1356,16 +1356,16 @@
         <v>application/json</v>
       </c>
       <c r="E30">
-        <v>3430</v>
+        <v>3313</v>
       </c>
       <c r="F30">
         <v>9962</v>
       </c>
       <c r="G30">
-        <v>0.0009974885899999997</v>
+        <v>0.0009634634689999999</v>
       </c>
       <c r="H30">
-        <v>0.0013139692020000002</v>
+        <v>0.0012691486782000002</v>
       </c>
     </row>
     <row r="31">
@@ -1382,16 +1382,16 @@
         <v>application/json</v>
       </c>
       <c r="E31">
-        <v>39093</v>
+        <v>38850</v>
       </c>
       <c r="F31">
         <v>131282</v>
       </c>
       <c r="G31">
-        <v>0.011368752608999999</v>
+        <v>0.011298085049999998</v>
       </c>
       <c r="H31">
-        <v>0.014975801170200004</v>
+        <v>0.014882712390000002</v>
       </c>
     </row>
     <row r="32">
@@ -1434,16 +1434,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E33">
-        <v>30424</v>
+        <v>30425</v>
       </c>
       <c r="F33">
         <v>29846</v>
       </c>
       <c r="G33">
-        <v>0.008847694711999999</v>
+        <v>0.008847985525</v>
       </c>
       <c r="H33">
-        <v>0.0116548685136</v>
+        <v>0.011655251595000003</v>
       </c>
     </row>
     <row r="34">
@@ -1460,16 +1460,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E34">
-        <v>19709</v>
+        <v>19708</v>
       </c>
       <c r="F34">
         <v>19133</v>
       </c>
       <c r="G34">
-        <v>0.005731633416999999</v>
+        <v>0.005731342603999999</v>
       </c>
       <c r="H34">
-        <v>0.007550151312600001</v>
+        <v>0.0075497682312</v>
       </c>
     </row>
     <row r="35">
@@ -1486,16 +1486,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E35">
-        <v>12500</v>
+        <v>12499</v>
       </c>
       <c r="F35">
         <v>11933</v>
       </c>
       <c r="G35">
-        <v>0.0036351624999999992</v>
+        <v>0.0036348716869999994</v>
       </c>
       <c r="H35">
-        <v>0.0047885175000000006</v>
+        <v>0.004788134418600001</v>
       </c>
     </row>
     <row r="36">
@@ -1590,16 +1590,16 @@
         <v>text/css</v>
       </c>
       <c r="E39">
-        <v>468</v>
+        <v>839</v>
       </c>
       <c r="F39">
         <v>622</v>
       </c>
       <c r="G39">
-        <v>0.00013610048399999996</v>
+        <v>0.00024399210699999996</v>
       </c>
       <c r="H39">
-        <v>0.00017928209520000002</v>
+        <v>0.00032140529459999997</v>
       </c>
     </row>
     <row r="40">
@@ -1616,16 +1616,16 @@
         <v>text/css</v>
       </c>
       <c r="E40">
-        <v>1027</v>
+        <v>656</v>
       </c>
       <c r="F40">
         <v>4984</v>
       </c>
       <c r="G40">
-        <v>0.00029866495099999997</v>
+        <v>0.00019077332799999997</v>
       </c>
       <c r="H40">
-        <v>0.00039342459780000006</v>
+        <v>0.00025130139840000005</v>
       </c>
     </row>
     <row r="41">
@@ -1668,16 +1668,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E42">
-        <v>1796</v>
+        <v>1787</v>
       </c>
       <c r="F42">
         <v>2522</v>
       </c>
       <c r="G42">
-        <v>0.000522300148</v>
+        <v>0.000519682831</v>
       </c>
       <c r="H42">
-        <v>0.0006880141944000001</v>
+        <v>0.0006845664618000001</v>
       </c>
     </row>
     <row r="43">
@@ -1772,16 +1772,16 @@
         <v>application/json</v>
       </c>
       <c r="E46">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="F46">
         <v>109</v>
       </c>
       <c r="G46">
-        <v>0.00034839397399999997</v>
+        <v>0.000345776657</v>
       </c>
       <c r="H46">
-        <v>0.0004589315172000001</v>
+        <v>0.0004554837846</v>
       </c>
     </row>
     <row r="47">
@@ -1798,16 +1798,16 @@
         <v>application/json</v>
       </c>
       <c r="E47">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47">
-        <v>0.00008724389999999999</v>
+        <v>0.00008753471299999999</v>
       </c>
       <c r="H47">
-        <v>0.00011492442</v>
+        <v>0.00011530750140000001</v>
       </c>
     </row>
     <row r="48">
@@ -1824,16 +1824,16 @@
         <v>application/json</v>
       </c>
       <c r="E48">
-        <v>924</v>
+        <v>1050</v>
       </c>
       <c r="F48">
         <v>1227</v>
       </c>
       <c r="G48">
-        <v>0.00026871121199999995</v>
+        <v>0.00030535364999999997</v>
       </c>
       <c r="H48">
-        <v>0.00035396721360000005</v>
+        <v>0.00040223546999999994</v>
       </c>
     </row>
     <row r="49">
@@ -1850,16 +1850,16 @@
         <v>text/css</v>
       </c>
       <c r="E49">
-        <v>1917</v>
+        <v>1966</v>
       </c>
       <c r="F49">
         <v>23412</v>
       </c>
       <c r="G49">
-        <v>0.000557488521</v>
+        <v>0.0005717383579999999</v>
       </c>
       <c r="H49">
-        <v>0.0007343670438000001</v>
+        <v>0.0007531380324</v>
       </c>
     </row>
     <row r="50">
@@ -1876,16 +1876,16 @@
         <v>application/json</v>
       </c>
       <c r="E50">
-        <v>2253</v>
+        <v>2370</v>
       </c>
       <c r="F50">
         <v>3087</v>
       </c>
       <c r="G50">
-        <v>0.0006552016889999999</v>
+        <v>0.0006892268099999998</v>
       </c>
       <c r="H50">
-        <v>0.0008630823942000002</v>
+        <v>0.0009079029180000002</v>
       </c>
     </row>
     <row r="51">
@@ -1902,16 +1902,16 @@
         <v>application/json</v>
       </c>
       <c r="E51">
-        <v>16240</v>
+        <v>16420</v>
       </c>
       <c r="F51">
         <v>76454</v>
       </c>
       <c r="G51">
-        <v>0.00472280312</v>
+        <v>0.004775149459999999</v>
       </c>
       <c r="H51">
-        <v>0.006221241936</v>
+        <v>0.006290196588</v>
       </c>
     </row>
     <row r="52">
@@ -1928,16 +1928,16 @@
         <v>application/json</v>
       </c>
       <c r="E52">
-        <v>3172</v>
+        <v>3307</v>
       </c>
       <c r="F52">
         <v>6047</v>
       </c>
       <c r="G52">
-        <v>0.0009224588359999998</v>
+        <v>0.0009617185909999999</v>
       </c>
       <c r="H52">
-        <v>0.0012151342008000002</v>
+        <v>0.0012668501897999999</v>
       </c>
     </row>
     <row r="53">
@@ -2026,19 +2026,22 @@
         <v>https://umami.backstage.prokom.no/api/send</v>
       </c>
       <c r="C56" t="str">
-        <v>Preflight</v>
+        <v>Fetch</v>
       </c>
       <c r="D56" t="str">
-        <v/>
+        <v>application/json</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>740</v>
+      </c>
+      <c r="F56">
+        <v>419</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>0.00021520161999999998</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>0.00028348023600000005</v>
       </c>
     </row>
     <row r="57">
@@ -2049,22 +2052,19 @@
         <v>https://umami.backstage.prokom.no/api/send</v>
       </c>
       <c r="C57" t="str">
-        <v>Fetch</v>
+        <v>Preflight</v>
       </c>
       <c r="D57" t="str">
-        <v>application/json</v>
+        <v/>
       </c>
       <c r="E57">
-        <v>739</v>
-      </c>
-      <c r="F57">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.00021491080699999996</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0.00028309715460000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2133,16 +2133,16 @@
         <v>application/json</v>
       </c>
       <c r="E60">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="F60">
         <v>2603</v>
       </c>
       <c r="G60">
-        <v>0.0005888963249999999</v>
+        <v>0.0005862790079999998</v>
       </c>
       <c r="H60">
-        <v>0.000775739835</v>
+        <v>0.0007722921024000001</v>
       </c>
     </row>
     <row r="61">
@@ -2260,16 +2260,16 @@
         <v>application/json</v>
       </c>
       <c r="E65">
-        <v>6310</v>
+        <v>6337</v>
       </c>
       <c r="F65">
         <v>14809</v>
       </c>
       <c r="G65">
-        <v>0.0018350300299999997</v>
+        <v>0.0018428819809999998</v>
       </c>
       <c r="H65">
-        <v>0.0024172436340000004</v>
+        <v>0.0024275868318</v>
       </c>
     </row>
     <row r="66">
@@ -2286,16 +2286,16 @@
         <v>application/json</v>
       </c>
       <c r="E66">
-        <v>3403</v>
+        <v>3412</v>
       </c>
       <c r="F66">
         <v>9962</v>
       </c>
       <c r="G66">
-        <v>0.0009896366389999997</v>
+        <v>0.0009922539559999999</v>
       </c>
       <c r="H66">
-        <v>0.0013036260042</v>
+        <v>0.0013070737368000003</v>
       </c>
     </row>
     <row r="67">
@@ -2312,16 +2312,16 @@
         <v>application/json</v>
       </c>
       <c r="E67">
-        <v>38895</v>
+        <v>39102</v>
       </c>
       <c r="F67">
         <v>131282</v>
       </c>
       <c r="G67">
-        <v>0.011311171634999999</v>
+        <v>0.011371369925999998</v>
       </c>
       <c r="H67">
-        <v>0.014899951053</v>
+        <v>0.014979248902800002</v>
       </c>
     </row>
     <row r="68">
@@ -2338,16 +2338,16 @@
         <v>application/json</v>
       </c>
       <c r="E68">
-        <v>24064</v>
+        <v>24065</v>
       </c>
       <c r="F68">
         <v>278993</v>
       </c>
       <c r="G68">
-        <v>0.006998124031999999</v>
+        <v>0.0069984148449999985</v>
       </c>
       <c r="H68">
-        <v>0.009218470809600003</v>
+        <v>0.009218853891</v>
       </c>
     </row>
     <row r="69">
@@ -2364,16 +2364,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E69">
-        <v>30424</v>
+        <v>30205</v>
       </c>
       <c r="F69">
         <v>29846</v>
       </c>
       <c r="G69">
-        <v>0.008847694711999999</v>
+        <v>0.008784006664999998</v>
       </c>
       <c r="H69">
-        <v>0.0116548685136</v>
+        <v>0.011570973687000002</v>
       </c>
     </row>
     <row r="70">
@@ -2390,16 +2390,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E70">
-        <v>19709</v>
+        <v>19472</v>
       </c>
       <c r="F70">
         <v>19133</v>
       </c>
       <c r="G70">
-        <v>0.005731633416999999</v>
+        <v>0.005662710735999999</v>
       </c>
       <c r="H70">
-        <v>0.007550151312600001</v>
+        <v>0.0074593610208</v>
       </c>
     </row>
     <row r="71">
@@ -2416,16 +2416,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E71">
-        <v>12499</v>
+        <v>12505</v>
       </c>
       <c r="F71">
         <v>11933</v>
       </c>
       <c r="G71">
-        <v>0.0036348716869999994</v>
+        <v>0.0036366165649999995</v>
       </c>
       <c r="H71">
-        <v>0.004788134418600001</v>
+        <v>0.004790432907000001</v>
       </c>
     </row>
     <row r="72">
@@ -2520,16 +2520,16 @@
         <v>text/css</v>
       </c>
       <c r="E75">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F75">
         <v>622</v>
       </c>
       <c r="G75">
-        <v>0.00024399210699999996</v>
+        <v>0.00024486454599999995</v>
       </c>
       <c r="H75">
-        <v>0.00032140529459999997</v>
+        <v>0.0003225545388000001</v>
       </c>
     </row>
     <row r="76">
@@ -2546,16 +2546,16 @@
         <v>text/css</v>
       </c>
       <c r="E76">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F76">
         <v>4984</v>
       </c>
       <c r="G76">
-        <v>0.00019077332799999997</v>
+        <v>0.00019106414099999996</v>
       </c>
       <c r="H76">
-        <v>0.00025130139840000005</v>
+        <v>0.00025168447980000003</v>
       </c>
     </row>
     <row r="77">
@@ -2598,16 +2598,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E78">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="F78">
         <v>2522</v>
       </c>
       <c r="G78">
-        <v>0.000522300148</v>
+        <v>0.0005225909609999999</v>
       </c>
       <c r="H78">
-        <v>0.0006880141944000001</v>
+        <v>0.0006883972758000001</v>
       </c>
     </row>
     <row r="79">
@@ -2624,16 +2624,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E79">
-        <v>24970</v>
+        <v>24971</v>
       </c>
       <c r="F79">
         <v>72380</v>
       </c>
       <c r="G79">
-        <v>0.007261600609999998</v>
+        <v>0.007261891422999999</v>
       </c>
       <c r="H79">
-        <v>0.009565542558000002</v>
+        <v>0.009565925639400001</v>
       </c>
     </row>
     <row r="80">
@@ -2702,16 +2702,16 @@
         <v>application/json</v>
       </c>
       <c r="E82">
-        <v>1063</v>
+        <v>693</v>
       </c>
       <c r="F82">
         <v>109</v>
       </c>
       <c r="G82">
-        <v>0.00030913421899999996</v>
+        <v>0.00020153340899999996</v>
       </c>
       <c r="H82">
-        <v>0.00040721552820000007</v>
+        <v>0.0002654754102</v>
       </c>
     </row>
     <row r="83">
@@ -2728,16 +2728,16 @@
         <v>application/json</v>
       </c>
       <c r="E83">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F83">
         <v>2</v>
       </c>
       <c r="G83">
-        <v>0.00008724389999999999</v>
+        <v>0.00008753471299999999</v>
       </c>
       <c r="H83">
-        <v>0.00011492442</v>
+        <v>0.00011530750140000001</v>
       </c>
     </row>
     <row r="84">
@@ -2754,16 +2754,16 @@
         <v>application/json</v>
       </c>
       <c r="E84">
-        <v>925</v>
+        <v>1556</v>
       </c>
       <c r="F84">
         <v>1227</v>
       </c>
       <c r="G84">
-        <v>0.00026900202499999996</v>
+        <v>0.00045250502799999996</v>
       </c>
       <c r="H84">
-        <v>0.00035435029500000003</v>
+        <v>0.0005960746583999999</v>
       </c>
     </row>
     <row r="85">
@@ -2780,16 +2780,16 @@
         <v>text/css</v>
       </c>
       <c r="E85">
-        <v>1963</v>
+        <v>1918</v>
       </c>
       <c r="F85">
         <v>23412</v>
       </c>
       <c r="G85">
-        <v>0.000570865919</v>
+        <v>0.000557779334</v>
       </c>
       <c r="H85">
-        <v>0.0007519887882000002</v>
+        <v>0.0007347501252</v>
       </c>
     </row>
     <row r="86">
@@ -2806,16 +2806,16 @@
         <v>application/json</v>
       </c>
       <c r="E86">
-        <v>2262</v>
+        <v>2379</v>
       </c>
       <c r="F86">
         <v>3087</v>
       </c>
       <c r="G86">
-        <v>0.0006578190059999999</v>
+        <v>0.0006918441269999999</v>
       </c>
       <c r="H86">
-        <v>0.0008665301268000001</v>
+        <v>0.0009113506506000001</v>
       </c>
     </row>
     <row r="87">
@@ -2832,16 +2832,16 @@
         <v>application/json</v>
       </c>
       <c r="E87">
-        <v>16285</v>
+        <v>16348</v>
       </c>
       <c r="F87">
         <v>76454</v>
       </c>
       <c r="G87">
-        <v>0.004735889704999999</v>
+        <v>0.004754210923999999</v>
       </c>
       <c r="H87">
-        <v>0.006238480599000001</v>
+        <v>0.006262614727200001</v>
       </c>
     </row>
     <row r="88">
@@ -2858,16 +2858,16 @@
         <v>application/json</v>
       </c>
       <c r="E88">
-        <v>3190</v>
+        <v>3298</v>
       </c>
       <c r="F88">
         <v>6047</v>
       </c>
       <c r="G88">
-        <v>0.0009276934699999998</v>
+        <v>0.0009591012739999998</v>
       </c>
       <c r="H88">
-        <v>0.0012220296659999999</v>
+        <v>0.0012634024572000001</v>
       </c>
     </row>
     <row r="89">
@@ -2956,19 +2956,22 @@
         <v>https://umami.backstage.prokom.no/api/send</v>
       </c>
       <c r="C92" t="str">
-        <v>Preflight</v>
+        <v>Fetch</v>
       </c>
       <c r="D92" t="str">
-        <v/>
+        <v>application/json</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>740</v>
+      </c>
+      <c r="F92">
+        <v>419</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.00021520161999999998</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>0.00028348023600000005</v>
       </c>
     </row>
     <row r="93">
@@ -2979,22 +2982,19 @@
         <v>https://umami.backstage.prokom.no/api/send</v>
       </c>
       <c r="C93" t="str">
-        <v>Fetch</v>
+        <v>Preflight</v>
       </c>
       <c r="D93" t="str">
-        <v>application/json</v>
+        <v/>
       </c>
       <c r="E93">
-        <v>739</v>
-      </c>
-      <c r="F93">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>0.00021491080699999996</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>0.00028309715460000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3063,16 +3063,16 @@
         <v>application/json</v>
       </c>
       <c r="E96">
-        <v>1890</v>
+        <v>2025</v>
       </c>
       <c r="F96">
         <v>2603</v>
       </c>
       <c r="G96">
-        <v>0.0005496365699999999</v>
+        <v>0.0005888963249999999</v>
       </c>
       <c r="H96">
-        <v>0.000724023846</v>
+        <v>0.000775739835</v>
       </c>
     </row>
     <row r="97">
@@ -3190,16 +3190,16 @@
         <v>application/json</v>
       </c>
       <c r="E101">
-        <v>6260</v>
+        <v>6274</v>
       </c>
       <c r="F101">
         <v>14809</v>
       </c>
       <c r="G101">
-        <v>0.0018204893799999998</v>
+        <v>0.0018245607619999998</v>
       </c>
       <c r="H101">
-        <v>0.002398089564</v>
+        <v>0.0024034527036000007</v>
       </c>
     </row>
     <row r="102">
@@ -3216,16 +3216,16 @@
         <v>application/json</v>
       </c>
       <c r="E102">
-        <v>3304</v>
+        <v>3430</v>
       </c>
       <c r="F102">
         <v>9962</v>
       </c>
       <c r="G102">
-        <v>0.0009608461519999999</v>
+        <v>0.0009974885899999997</v>
       </c>
       <c r="H102">
-        <v>0.0012657009456000002</v>
+        <v>0.0013139692020000002</v>
       </c>
     </row>
     <row r="103">
@@ -3242,16 +3242,16 @@
         <v>application/json</v>
       </c>
       <c r="E103">
-        <v>38976</v>
+        <v>39093</v>
       </c>
       <c r="F103">
         <v>131282</v>
       </c>
       <c r="G103">
-        <v>0.011334727487999999</v>
+        <v>0.011368752608999999</v>
       </c>
       <c r="H103">
-        <v>0.014930980646400001</v>
+        <v>0.014975801170200004</v>
       </c>
     </row>
     <row r="104">
@@ -3268,16 +3268,16 @@
         <v>application/json</v>
       </c>
       <c r="E104">
-        <v>24064</v>
+        <v>24065</v>
       </c>
       <c r="F104">
         <v>278993</v>
       </c>
       <c r="G104">
-        <v>0.006998124031999999</v>
+        <v>0.0069984148449999985</v>
       </c>
       <c r="H104">
-        <v>0.009218470809600003</v>
+        <v>0.009218853891</v>
       </c>
     </row>
     <row r="105">
@@ -3294,16 +3294,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E105">
-        <v>30424</v>
+        <v>30425</v>
       </c>
       <c r="F105">
         <v>29846</v>
       </c>
       <c r="G105">
-        <v>0.008847694711999999</v>
+        <v>0.008847985525</v>
       </c>
       <c r="H105">
-        <v>0.0116548685136</v>
+        <v>0.011655251595000003</v>
       </c>
     </row>
     <row r="106">
@@ -3320,16 +3320,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E106">
-        <v>19709</v>
+        <v>19710</v>
       </c>
       <c r="F106">
         <v>19133</v>
       </c>
       <c r="G106">
-        <v>0.005731633416999999</v>
+        <v>0.005731924229999999</v>
       </c>
       <c r="H106">
-        <v>0.007550151312600001</v>
+        <v>0.007550534394</v>
       </c>
     </row>
     <row r="107">
@@ -3346,16 +3346,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E107">
-        <v>12499</v>
+        <v>12500</v>
       </c>
       <c r="F107">
         <v>11933</v>
       </c>
       <c r="G107">
-        <v>0.0036348716869999994</v>
+        <v>0.0036351624999999992</v>
       </c>
       <c r="H107">
-        <v>0.004788134418600001</v>
+        <v>0.0047885175000000006</v>
       </c>
     </row>
     <row r="108">
@@ -3460,7 +3460,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>311857</v>
+        <v>311888</v>
       </c>
       <c r="D3">
         <v>1985244</v>
@@ -3474,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>1296621</v>
+        <v>1296606</v>
       </c>
       <c r="D4">
         <v>4533324</v>
@@ -3488,7 +3488,7 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>282480</v>
+        <v>282708</v>
       </c>
       <c r="D5">
         <v>1547580</v>
@@ -3502,7 +3502,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>16545</v>
+        <v>16797</v>
       </c>
       <c r="D6">
         <v>27402</v>
@@ -3516,7 +3516,7 @@
         <v>27</v>
       </c>
       <c r="C7">
-        <v>763372</v>
+        <v>762924</v>
       </c>
       <c r="D7">
         <v>745578</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1134634</v>
+        <v>1133398</v>
       </c>
       <c r="C2">
-        <v>0.32996631744199995</v>
+        <v>0.32960687257399995</v>
       </c>
       <c r="D2">
-        <v>0.43465718120760005</v>
+        <v>0.4341836925972</v>
       </c>
     </row>
     <row r="3">
@@ -3611,13 +3611,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1133912</v>
+        <v>1134288</v>
       </c>
       <c r="C3">
-        <v>0.329756350456</v>
+        <v>0.32986569614399996</v>
       </c>
       <c r="D3">
-        <v>0.43438059643680005</v>
+        <v>0.43452463504320005</v>
       </c>
     </row>
     <row r="4">
@@ -3625,13 +3625,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1133693</v>
+        <v>1134601</v>
       </c>
       <c r="C4">
-        <v>0.32969266240899997</v>
+        <v>0.32995672061299997</v>
       </c>
       <c r="D4">
-        <v>0.43429670161020006</v>
+        <v>0.4346445395214001</v>
       </c>
     </row>
     <row r="5">
@@ -3639,13 +3639,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1133912</v>
+        <v>1134288</v>
       </c>
       <c r="C5">
-        <v>0.329756350456</v>
+        <v>0.32986569614399996</v>
       </c>
       <c r="D5">
-        <v>0.43438059643680005</v>
+        <v>0.43452463504320005</v>
       </c>
     </row>
   </sheetData>
